--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9288666-55C1-944B-BE11-46D85906447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF522C2-3B62-2F44-AA26-48DE52A2AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="20780" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flu-refseqs.isolates" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="757">
   <si>
     <t>strain_id</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>seq_count</t>
   </si>
   <si>
@@ -2195,12 +2192,111 @@
   </si>
   <si>
     <t>MF147504</t>
+  </si>
+  <si>
+    <t>Leucophaeus atricilla</t>
+  </si>
+  <si>
+    <t>virus_name</t>
+  </si>
+  <si>
+    <t>D/swine/Oklahoma/1334/2011</t>
+  </si>
+  <si>
+    <t>NC_036619</t>
+  </si>
+  <si>
+    <t>C/Ann Arbor/1/50</t>
+  </si>
+  <si>
+    <t>NC_006310</t>
+  </si>
+  <si>
+    <t>NC_006312</t>
+  </si>
+  <si>
+    <t>CQ903172</t>
+  </si>
+  <si>
+    <t>CQ903173</t>
+  </si>
+  <si>
+    <t>CQ903174</t>
+  </si>
+  <si>
+    <t>CQ903175</t>
+  </si>
+  <si>
+    <t>CQ903177</t>
+  </si>
+  <si>
+    <t>CQ903176</t>
+  </si>
+  <si>
+    <t>CQ903178</t>
+  </si>
+  <si>
+    <t>CQ903179</t>
+  </si>
+  <si>
+    <t>B/Hong Kong/8/1973</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>iav</t>
+  </si>
+  <si>
+    <t>ibv</t>
+  </si>
+  <si>
+    <t>icv</t>
+  </si>
+  <si>
+    <t>idv</t>
+  </si>
+  <si>
+    <t>NC_006307</t>
+  </si>
+  <si>
+    <t>NC_006308</t>
+  </si>
+  <si>
+    <t>NC_006309</t>
+  </si>
+  <si>
+    <t>NC_006311</t>
+  </si>
+  <si>
+    <t>NC_036616</t>
+  </si>
+  <si>
+    <t>NC_036615</t>
+  </si>
+  <si>
+    <t>NC_036618</t>
+  </si>
+  <si>
+    <t>NC_036617</t>
+  </si>
+  <si>
+    <t>NC_036620</t>
+  </si>
+  <si>
+    <t>NC_036621</t>
+  </si>
+  <si>
+    <t>NC_006306</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2337,7 +2433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2517,6 +2613,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2678,8 +2786,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2727,6 +2837,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8AD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3034,505 +3149,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:AB58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>743</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>741</v>
       </c>
       <c r="E2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2">
+        <v>1973</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="F2">
-        <v>1934</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>740</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>731</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>732</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>733</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>734</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>735</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>736</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>737</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>738</v>
       </c>
       <c r="U2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B3" t="s">
+        <v>744</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>741</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>741</v>
       </c>
       <c r="F3">
-        <v>2001</v>
+        <v>1950</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
       <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>746</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>747</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>748</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>729</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>749</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>730</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>756</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" t="s">
+        <v>745</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>741</v>
       </c>
       <c r="E4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F4">
+        <v>2011</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="F4">
-        <v>2019</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
       <c r="H4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>751</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>727</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>752</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>753</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>754</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>755</v>
       </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>742</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2017</v>
+        <v>1934</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>742</v>
       </c>
       <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>2001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6">
-        <v>2018</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>94</v>
-      </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -3560,65 +3677,65 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>742</v>
       </c>
       <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F7">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -3630,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -3646,65 +3763,65 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>742</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -3732,65 +3849,65 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>742</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F9">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="T9" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -3802,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -3818,151 +3935,151 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>742</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="F10">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
       <c r="L10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="R10" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="T10" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>2</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>742</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F11">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="Q11" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="S11" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="T11" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -3990,65 +4107,65 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
+      <c r="A12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>742</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="F12">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
         <v>120</v>
       </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>121</v>
-      </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="R12" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="S12" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="T12" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -4060,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -4076,151 +4193,151 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>742</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
         <v>144</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>2018</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
         <v>145</v>
       </c>
-      <c r="F13">
-        <v>2012</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
-      </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="Q13" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="R13" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="T13" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
+      <c r="A14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>742</v>
       </c>
       <c r="C14">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>2016</v>
       </c>
       <c r="G14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
         <v>158</v>
       </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>192</v>
-      </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="Q14" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="R14" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="S14" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="T14" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -4248,65 +4365,65 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
+      <c r="A15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>742</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="G15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
         <v>120</v>
       </c>
-      <c r="H15">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
-      </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="R15" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="T15" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -4334,65 +4451,65 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
+      <c r="A16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>742</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="F16">
-        <v>1988</v>
+        <v>2012</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="Q16" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="R16" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="S16" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="T16" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -4420,65 +4537,65 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
+      <c r="A17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>742</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F17">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="Q17" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="R17" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="S17" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -4506,65 +4623,65 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
+      <c r="A18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>742</v>
       </c>
       <c r="C18">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="F18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="Q18" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="R18" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="S18" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="T18" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -4592,65 +4709,65 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
+      <c r="A19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>742</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="F19">
-        <v>2019</v>
+        <v>1988</v>
       </c>
       <c r="G19" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="Q19" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="R19" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="S19" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="T19" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4678,65 +4795,65 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
+      <c r="A20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>742</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="Q20" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="R20" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="S20" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="T20" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4764,65 +4881,65 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
+      <c r="A21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>742</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="F21">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="Q21" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="R21" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="S21" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="T21" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4850,65 +4967,65 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
+      <c r="A22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>742</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="F22">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
         <v>47</v>
       </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
       <c r="M22" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="O22" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="Q22" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="R22" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="S22" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="T22" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4936,65 +5053,65 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
+      <c r="A23" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
+        <v>742</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>301</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
+        <v>263</v>
+      </c>
+      <c r="F23">
+        <v>2020</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
+        <v>251</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="N23" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="O23" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="P23" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="R23" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="S23" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="T23" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -5022,65 +5139,65 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
+      <c r="A24" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" t="s">
+        <v>742</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="F24">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>119</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="N24" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="O24" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="Q24" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="R24" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="S24" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="T24" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5108,65 +5225,65 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>323</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
+      <c r="A25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>742</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="O25" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="P25" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="Q25" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="R25" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="S25" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="T25" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5194,65 +5311,65 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
+      <c r="A26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" t="s">
+        <v>742</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="E26" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s">
-        <v>339</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="N26" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="O26" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="P26" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="Q26" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="R26" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="S26" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="T26" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5280,65 +5397,65 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
+      <c r="A27" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>742</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E27" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="F27">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="G27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>120</v>
       </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>217</v>
-      </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="M27" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="N27" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="O27" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="P27" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="Q27" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="R27" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="S27" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="T27" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5366,65 +5483,65 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
+      <c r="A28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" t="s">
+        <v>742</v>
       </c>
       <c r="C28">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="F28">
         <v>2020</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28">
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="N28" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="O28" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="P28" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="Q28" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="R28" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="S28" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="T28" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5452,65 +5569,65 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
+      <c r="A29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>742</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F29">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>372</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="L29" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="M29" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="N29" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="O29" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="P29" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="Q29" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="R29" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="S29" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="T29" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5538,65 +5655,65 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
+      <c r="A30" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s">
+        <v>742</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="F30">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
+        <v>119</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="N30" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="O30" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="P30" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="Q30" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="R30" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="S30" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="T30" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5608,13 +5725,13 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -5624,65 +5741,65 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>394</v>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
+      <c r="A31" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" t="s">
+        <v>742</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="E31" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="F31">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>397</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>398</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>399</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="N31" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="O31" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="P31" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="Q31" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="R31" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="S31" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="T31" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5710,65 +5827,65 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>408</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
+      <c r="A32" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" t="s">
+        <v>742</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
+        <v>277</v>
       </c>
       <c r="F32">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G32" t="s">
-        <v>411</v>
+        <v>119</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="J32" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>338</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="M32" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="N32" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="O32" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="P32" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="Q32" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="R32" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="S32" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="T32" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -5796,65 +5913,65 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" t="b">
-        <v>1</v>
+      <c r="A33" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" t="s">
+        <v>742</v>
       </c>
       <c r="C33">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="F33">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
-      </c>
-      <c r="H33">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="M33" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="N33" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="O33" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="P33" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="Q33" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="R33" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="S33" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="T33" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -5866,13 +5983,13 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -5882,65 +5999,65 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>432</v>
-      </c>
-      <c r="B34" t="b">
-        <v>1</v>
+      <c r="A34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" t="s">
+        <v>742</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="E34" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="F34">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="M34" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="N34" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="O34" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="P34" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="Q34" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="R34" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="S34" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="T34" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -5968,65 +6085,65 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>444</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
+      <c r="A35" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>742</v>
       </c>
       <c r="C35">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="E35" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="F35">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G35" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="M35" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="N35" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="O35" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="P35" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="Q35" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="R35" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="S35" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="T35" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6054,65 +6171,65 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>456</v>
-      </c>
-      <c r="B36" t="b">
-        <v>1</v>
+      <c r="A36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" t="s">
+        <v>742</v>
       </c>
       <c r="C36">
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>457</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>458</v>
+        <v>263</v>
       </c>
       <c r="F36">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="M36" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="N36" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="O36" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="P36" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="Q36" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="R36" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="S36" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="T36" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6140,65 +6257,65 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>469</v>
-      </c>
-      <c r="B37" t="b">
-        <v>1</v>
+      <c r="A37" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37" t="s">
+        <v>742</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="E37" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="F37">
         <v>2015</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>472</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="L37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="N37" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="O37" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="P37" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="Q37" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="R37" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="S37" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="T37" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6226,65 +6343,65 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>482</v>
-      </c>
-      <c r="B38" t="b">
-        <v>1</v>
+      <c r="A38" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" t="s">
+        <v>742</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="E38" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="F38">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G38" t="s">
-        <v>485</v>
+        <v>251</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="L38" t="s">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="M38" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="N38" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="O38" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="P38" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="Q38" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="R38" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="S38" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="T38" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6312,65 +6429,65 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39" t="b">
-        <v>1</v>
+      <c r="A39" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B39" t="s">
+        <v>742</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="E39" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="F39">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="K39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="M39" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="N39" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="O39" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="P39" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="Q39" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="R39" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="S39" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="T39" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6398,65 +6515,65 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>509</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
+      <c r="A40" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B40" t="s">
+        <v>742</v>
       </c>
       <c r="C40">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="E40" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="F40">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="H40">
         <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="L40" t="s">
-        <v>512</v>
+        <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="N40" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="O40" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="P40" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="Q40" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="R40" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="S40" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="T40" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6484,151 +6601,151 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>521</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
+      <c r="A41" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B41" t="s">
+        <v>742</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="E41" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="F41">
-        <v>1956</v>
+        <v>2015</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
+        <v>484</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
       </c>
       <c r="I41" t="s">
+        <v>485</v>
+      </c>
+      <c r="J41" t="s">
+        <v>486</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" t="s">
-        <v>524</v>
-      </c>
-      <c r="L41" t="s">
-        <v>525</v>
-      </c>
       <c r="M41" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="N41" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="O41" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="P41" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="Q41" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="R41" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="S41" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="T41" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>534</v>
-      </c>
-      <c r="B42" t="b">
-        <v>1</v>
+      <c r="A42" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B42" t="s">
+        <v>742</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="F42">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>498</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="M42" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="N42" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="O42" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="P42" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="Q42" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="R42" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="S42" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="T42" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -6656,65 +6773,65 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>543</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
+      <c r="A43" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" t="s">
+        <v>742</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="E43" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="F43">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>546</v>
+        <v>216</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>511</v>
       </c>
       <c r="M43" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="N43" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="O43" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="P43" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="Q43" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="R43" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="S43" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="T43" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -6742,151 +6859,151 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>555</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
+      <c r="A44" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B44" t="s">
+        <v>742</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="E44" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="F44">
-        <v>2010</v>
+        <v>1956</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="J44" t="s">
-        <v>558</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="L44" t="s">
-        <v>399</v>
+        <v>524</v>
       </c>
       <c r="M44" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="N44" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="O44" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="P44" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="Q44" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="R44" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="S44" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="T44" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>567</v>
-      </c>
-      <c r="B45" t="b">
-        <v>1</v>
+      <c r="A45" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" t="s">
+        <v>742</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>568</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s">
-        <v>569</v>
+        <v>349</v>
       </c>
       <c r="F45">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="N45" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="O45" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="P45" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="Q45" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="R45" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="S45" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="T45" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -6914,65 +7031,65 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>578</v>
-      </c>
-      <c r="B46" t="b">
-        <v>1</v>
+      <c r="A46" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B46" t="s">
+        <v>742</v>
       </c>
       <c r="C46">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="E46" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="F46">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>545</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
         <v>46</v>
       </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" t="s">
-        <v>581</v>
-      </c>
-      <c r="J46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" t="s">
-        <v>31</v>
-      </c>
       <c r="L46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="N46" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="O46" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="P46" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="Q46" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="R46" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="S46" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="T46" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -7000,65 +7117,65 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>590</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
+      <c r="A47" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" t="s">
+        <v>742</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="F47">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="H47">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>557</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="N47" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="O47" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="P47" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="Q47" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="R47" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="S47" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="T47" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -7086,65 +7203,65 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>600</v>
-      </c>
-      <c r="B48" t="b">
-        <v>1</v>
+      <c r="A48" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B48" t="s">
+        <v>742</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
       <c r="F48">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
         <v>45</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>46</v>
       </c>
-      <c r="K48" t="s">
-        <v>31</v>
-      </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="N48" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="O48" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="P48" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="Q48" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="R48" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="S48" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="T48" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -7172,65 +7289,65 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>610</v>
-      </c>
-      <c r="B49" t="b">
-        <v>1</v>
+      <c r="A49" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B49" t="s">
+        <v>742</v>
       </c>
       <c r="C49">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>579</v>
       </c>
       <c r="F49">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>217</v>
+        <v>580</v>
       </c>
       <c r="J49" t="s">
-        <v>612</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>613</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>614</v>
+        <v>47</v>
       </c>
       <c r="M49" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="N49" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="O49" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="P49" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="Q49" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="R49" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="S49" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="T49" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -7258,65 +7375,65 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>623</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
+      <c r="A50" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B50" t="s">
+        <v>742</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F50">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="G50" t="s">
-        <v>625</v>
+        <v>119</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>626</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="N50" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="O50" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="P50" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="Q50" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="R50" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="S50" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="T50" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -7344,65 +7461,65 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>635</v>
-      </c>
-      <c r="B51" t="b">
-        <v>1</v>
+      <c r="A51" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B51" t="s">
+        <v>742</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="F51">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>47</v>
       </c>
       <c r="M51" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="N51" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="O51" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="P51" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="Q51" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="R51" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="S51" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="T51" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -7430,151 +7547,151 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>645</v>
-      </c>
-      <c r="B52" t="b">
-        <v>1</v>
+      <c r="A52" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B52" t="s">
+        <v>742</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>610</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="F52">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G52" t="s">
-        <v>485</v>
+        <v>102</v>
       </c>
       <c r="H52">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="J52" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
+        <v>612</v>
       </c>
       <c r="L52" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="M52" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="N52" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="O52" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="P52" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="Q52" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="R52" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="S52" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="T52" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>656</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
+      <c r="A53" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B53" t="s">
+        <v>742</v>
       </c>
       <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>623</v>
+      </c>
+      <c r="E53" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53">
+        <v>2016</v>
+      </c>
+      <c r="G53" t="s">
+        <v>624</v>
+      </c>
+      <c r="H53">
         <v>18</v>
       </c>
-      <c r="D53" t="s">
-        <v>657</v>
-      </c>
-      <c r="E53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>46</v>
-      </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>625</v>
       </c>
       <c r="J53" t="s">
-        <v>658</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M53" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="N53" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="O53" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="P53" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="Q53" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="R53" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="S53" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="T53" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -7602,65 +7719,65 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>667</v>
-      </c>
-      <c r="B54" t="b">
-        <v>1</v>
+      <c r="A54" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B54" t="s">
+        <v>742</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="E54" t="s">
-        <v>669</v>
+        <v>156</v>
       </c>
       <c r="F54">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>670</v>
+        <v>106</v>
       </c>
       <c r="J54" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>671</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s">
-        <v>48</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="N54" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="O54" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="P54" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="Q54" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="R54" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="S54" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="T54" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -7688,151 +7805,151 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>680</v>
-      </c>
-      <c r="B55" t="b">
-        <v>1</v>
+      <c r="A55" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B55" t="s">
+        <v>742</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>681</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>682</v>
+        <v>144</v>
       </c>
       <c r="F55">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="H55">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>683</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>645</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L55" t="s">
-        <v>684</v>
+        <v>646</v>
       </c>
       <c r="M55" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="N55" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="O55" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="P55" t="s">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="Q55" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
       <c r="R55" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="S55" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="T55" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>693</v>
-      </c>
-      <c r="B56" t="b">
-        <v>1</v>
+      <c r="A56" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B56" t="s">
+        <v>742</v>
       </c>
       <c r="C56">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>694</v>
+        <v>656</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="F56">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="G56" t="s">
-        <v>485</v>
-      </c>
-      <c r="H56">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>121</v>
+        <v>724</v>
       </c>
       <c r="J56" t="s">
-        <v>695</v>
+        <v>657</v>
       </c>
       <c r="K56" t="s">
-        <v>338</v>
+        <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>696</v>
+        <v>47</v>
       </c>
       <c r="M56" t="s">
-        <v>697</v>
+        <v>658</v>
       </c>
       <c r="N56" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="O56" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="P56" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="Q56" t="s">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="R56" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
       <c r="S56" t="s">
-        <v>703</v>
+        <v>664</v>
       </c>
       <c r="T56" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -7860,65 +7977,65 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>705</v>
-      </c>
-      <c r="B57" t="b">
-        <v>1</v>
+      <c r="A57" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B57" t="s">
+        <v>742</v>
       </c>
       <c r="C57">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>706</v>
+        <v>667</v>
       </c>
       <c r="E57" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
       <c r="F57">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>546</v>
+        <v>669</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s">
+        <v>670</v>
+      </c>
+      <c r="L57" t="s">
         <v>47</v>
       </c>
-      <c r="L57" t="s">
-        <v>48</v>
-      </c>
       <c r="M57" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="N57" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="O57" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="P57" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="Q57" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="R57" t="s">
-        <v>713</v>
+        <v>676</v>
       </c>
       <c r="S57" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="T57" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -7946,88 +8063,346 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>716</v>
-      </c>
-      <c r="B58" t="b">
-        <v>1</v>
+      <c r="A58" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" t="s">
+        <v>742</v>
       </c>
       <c r="C58">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="E58" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="F58">
         <v>2008</v>
       </c>
       <c r="G58" t="s">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="H58">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>682</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" t="s">
+        <v>683</v>
+      </c>
+      <c r="M58" t="s">
+        <v>684</v>
+      </c>
+      <c r="N58" t="s">
+        <v>685</v>
+      </c>
+      <c r="O58" t="s">
+        <v>686</v>
+      </c>
+      <c r="P58" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>688</v>
+      </c>
+      <c r="R58" t="s">
+        <v>689</v>
+      </c>
+      <c r="S58" t="s">
+        <v>690</v>
+      </c>
+      <c r="T58" t="s">
+        <v>691</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B59" t="s">
+        <v>742</v>
+      </c>
+      <c r="C59">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>693</v>
+      </c>
+      <c r="E59" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59">
+        <v>2018</v>
+      </c>
+      <c r="G59" t="s">
+        <v>484</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" t="s">
+        <v>694</v>
+      </c>
+      <c r="K59" t="s">
+        <v>337</v>
+      </c>
+      <c r="L59" t="s">
+        <v>695</v>
+      </c>
+      <c r="M59" t="s">
+        <v>696</v>
+      </c>
+      <c r="N59" t="s">
+        <v>697</v>
+      </c>
+      <c r="O59" t="s">
+        <v>698</v>
+      </c>
+      <c r="P59" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>700</v>
+      </c>
+      <c r="R59" t="s">
+        <v>701</v>
+      </c>
+      <c r="S59" t="s">
+        <v>702</v>
+      </c>
+      <c r="T59" t="s">
+        <v>703</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B60" t="s">
+        <v>742</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>705</v>
+      </c>
+      <c r="E60" t="s">
+        <v>706</v>
+      </c>
+      <c r="F60">
+        <v>2010</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>545</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>707</v>
+      </c>
+      <c r="N60" t="s">
+        <v>708</v>
+      </c>
+      <c r="O60" t="s">
+        <v>709</v>
+      </c>
+      <c r="P60" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>711</v>
+      </c>
+      <c r="R60" t="s">
+        <v>712</v>
+      </c>
+      <c r="S60" t="s">
+        <v>713</v>
+      </c>
+      <c r="T60" t="s">
+        <v>714</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B61" t="s">
+        <v>742</v>
+      </c>
+      <c r="C61">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>705</v>
+      </c>
+      <c r="E61" t="s">
+        <v>706</v>
+      </c>
+      <c r="F61">
+        <v>2008</v>
+      </c>
+      <c r="G61" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61">
         <v>28</v>
       </c>
-      <c r="I58" t="s">
-        <v>546</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" t="s">
         <v>46</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L61" t="s">
         <v>47</v>
       </c>
-      <c r="L58" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="M61" t="s">
+        <v>716</v>
+      </c>
+      <c r="N61" t="s">
         <v>717</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O61" t="s">
         <v>718</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P61" t="s">
         <v>719</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q61" t="s">
         <v>720</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R61" t="s">
         <v>721</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S61" t="s">
         <v>722</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T61" t="s">
         <v>723</v>
       </c>
-      <c r="T58" t="s">
-        <v>724</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
         <v>1</v>
       </c>
     </row>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF522C2-3B62-2F44-AA26-48DE52A2AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022E6EA-2F19-3245-B916-9DD4525CA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20780" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="756">
   <si>
     <t>strain_id</t>
   </si>
@@ -2243,9 +2243,6 @@
   </si>
   <si>
     <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
   <si>
     <t>iav</t>
@@ -3152,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:AB61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3254,16 +3251,16 @@
         <v>739</v>
       </c>
       <c r="B2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>1973</v>
@@ -3337,16 +3334,16 @@
         <v>728</v>
       </c>
       <c r="B3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1950</v>
@@ -3370,25 +3367,25 @@
         <v>47</v>
       </c>
       <c r="M3" t="s">
+        <v>745</v>
+      </c>
+      <c r="N3" t="s">
         <v>746</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>747</v>
-      </c>
-      <c r="O3" t="s">
-        <v>748</v>
       </c>
       <c r="P3" t="s">
         <v>729</v>
       </c>
       <c r="Q3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R3" t="s">
         <v>730</v>
       </c>
       <c r="S3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T3" t="s">
         <v>47</v>
@@ -3423,16 +3420,16 @@
         <v>726</v>
       </c>
       <c r="B4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>2011</v>
@@ -3456,25 +3453,25 @@
         <v>47</v>
       </c>
       <c r="M4" t="s">
+        <v>749</v>
+      </c>
+      <c r="N4" t="s">
         <v>750</v>
-      </c>
-      <c r="N4" t="s">
-        <v>751</v>
       </c>
       <c r="O4" t="s">
         <v>727</v>
       </c>
       <c r="P4" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q4" t="s">
         <v>752</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>753</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>754</v>
-      </c>
-      <c r="S4" t="s">
-        <v>755</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
@@ -3509,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C5">
         <v>198</v>
@@ -3595,7 +3592,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -3681,7 +3678,7 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C7">
         <v>48</v>
@@ -3767,7 +3764,7 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -3853,7 +3850,7 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C9">
         <v>48</v>
@@ -3939,7 +3936,7 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C10">
         <v>57</v>
@@ -4025,7 +4022,7 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C11">
         <v>66</v>
@@ -4111,7 +4108,7 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C12">
         <v>70</v>
@@ -4197,7 +4194,7 @@
         <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C13">
         <v>42</v>
@@ -4283,7 +4280,7 @@
         <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C14">
         <v>58</v>
@@ -4369,7 +4366,7 @@
         <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C15">
         <v>66</v>
@@ -4455,7 +4452,7 @@
         <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C16">
         <v>48</v>
@@ -4541,7 +4538,7 @@
         <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C17">
         <v>58</v>
@@ -4627,7 +4624,7 @@
         <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C18">
         <v>48</v>
@@ -4713,7 +4710,7 @@
         <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -4799,7 +4796,7 @@
         <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -4885,7 +4882,7 @@
         <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C21">
         <v>48</v>
@@ -4971,7 +4968,7 @@
         <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C22">
         <v>18</v>
@@ -5057,7 +5054,7 @@
         <v>261</v>
       </c>
       <c r="B23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C23">
         <v>48</v>
@@ -5143,7 +5140,7 @@
         <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C24">
         <v>56</v>
@@ -5229,7 +5226,7 @@
         <v>287</v>
       </c>
       <c r="B25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -5315,7 +5312,7 @@
         <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -5401,7 +5398,7 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C27">
         <v>48</v>
@@ -5487,7 +5484,7 @@
         <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C28">
         <v>48</v>
@@ -5573,7 +5570,7 @@
         <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C29">
         <v>48</v>
@@ -5659,7 +5656,7 @@
         <v>347</v>
       </c>
       <c r="B30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -5745,7 +5742,7 @@
         <v>358</v>
       </c>
       <c r="B31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C31">
         <v>48</v>
@@ -5831,7 +5828,7 @@
         <v>369</v>
       </c>
       <c r="B32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C32">
         <v>58</v>
@@ -5917,7 +5914,7 @@
         <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C33">
         <v>68</v>
@@ -6003,7 +6000,7 @@
         <v>393</v>
       </c>
       <c r="B34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -6089,7 +6086,7 @@
         <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C35">
         <v>48</v>
@@ -6175,7 +6172,7 @@
         <v>420</v>
       </c>
       <c r="B36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C36">
         <v>48</v>
@@ -6261,7 +6258,7 @@
         <v>431</v>
       </c>
       <c r="B37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C37">
         <v>58</v>
@@ -6347,7 +6344,7 @@
         <v>443</v>
       </c>
       <c r="B38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C38">
         <v>48</v>
@@ -6433,7 +6430,7 @@
         <v>455</v>
       </c>
       <c r="B39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C39">
         <v>48</v>
@@ -6519,7 +6516,7 @@
         <v>468</v>
       </c>
       <c r="B40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C40">
         <v>48</v>
@@ -6605,7 +6602,7 @@
         <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -6691,7 +6688,7 @@
         <v>495</v>
       </c>
       <c r="B42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C42">
         <v>18</v>
@@ -6777,7 +6774,7 @@
         <v>508</v>
       </c>
       <c r="B43" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C43">
         <v>58</v>
@@ -6863,7 +6860,7 @@
         <v>520</v>
       </c>
       <c r="B44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C44">
         <v>28</v>
@@ -6949,7 +6946,7 @@
         <v>533</v>
       </c>
       <c r="B45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -7035,7 +7032,7 @@
         <v>542</v>
       </c>
       <c r="B46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C46">
         <v>48</v>
@@ -7121,7 +7118,7 @@
         <v>554</v>
       </c>
       <c r="B47" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C47">
         <v>18</v>
@@ -7207,7 +7204,7 @@
         <v>566</v>
       </c>
       <c r="B48" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -7293,7 +7290,7 @@
         <v>577</v>
       </c>
       <c r="B49" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -7379,7 +7376,7 @@
         <v>589</v>
       </c>
       <c r="B50" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C50">
         <v>66</v>
@@ -7465,7 +7462,7 @@
         <v>599</v>
       </c>
       <c r="B51" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C51">
         <v>48</v>
@@ -7551,7 +7548,7 @@
         <v>609</v>
       </c>
       <c r="B52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C52">
         <v>58</v>
@@ -7637,7 +7634,7 @@
         <v>622</v>
       </c>
       <c r="B53" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -7723,7 +7720,7 @@
         <v>634</v>
       </c>
       <c r="B54" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C54">
         <v>26</v>
@@ -7809,7 +7806,7 @@
         <v>644</v>
       </c>
       <c r="B55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C55">
         <v>36</v>
@@ -7895,7 +7892,7 @@
         <v>655</v>
       </c>
       <c r="B56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -7981,7 +7978,7 @@
         <v>666</v>
       </c>
       <c r="B57" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -8067,7 +8064,7 @@
         <v>679</v>
       </c>
       <c r="B58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -8153,7 +8150,7 @@
         <v>692</v>
       </c>
       <c r="B59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C59">
         <v>48</v>
@@ -8239,7 +8236,7 @@
         <v>704</v>
       </c>
       <c r="B60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -8325,7 +8322,7 @@
         <v>715</v>
       </c>
       <c r="B61" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C61">
         <v>48</v>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/flu/Flu-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA9FB2B-675A-1E49-A1D6-EA7E3ECFC30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788821D4-72BE-E04E-88C6-3294901E72C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="1960" windowWidth="33540" windowHeight="23740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flu-refseqs.isolates" sheetId="1" r:id="rId1"/>
@@ -2224,9 +2224,6 @@
     <t>CQ903174</t>
   </si>
   <si>
-    <t>CQ903175</t>
-  </si>
-  <si>
     <t>CQ903177</t>
   </si>
   <si>
@@ -2288,13 +2285,16 @@
   </si>
   <si>
     <t>NC_006306</t>
+  </si>
+  <si>
+    <t>CY018773</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3196,11 +3196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="11" customWidth="1"/>
@@ -3208,7 +3208,7 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3294,12 +3294,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2" s="12">
         <v>198</v>
@@ -3380,12 +3380,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C3" s="12">
         <v>26</v>
@@ -3466,12 +3466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C4" s="12">
         <v>48</v>
@@ -3552,12 +3552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C5" s="12">
         <v>58</v>
@@ -3638,12 +3638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C6" s="12">
         <v>48</v>
@@ -3724,12 +3724,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" s="12">
         <v>57</v>
@@ -3810,12 +3810,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C8" s="12">
         <v>66</v>
@@ -3896,12 +3896,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C9" s="12">
         <v>70</v>
@@ -3982,12 +3982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C10" s="12">
         <v>42</v>
@@ -4068,12 +4068,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C11" s="12">
         <v>58</v>
@@ -4154,12 +4154,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C12" s="12">
         <v>66</v>
@@ -4240,12 +4240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C13" s="12">
         <v>48</v>
@@ -4326,12 +4326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C14" s="12">
         <v>58</v>
@@ -4412,12 +4412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C15" s="12">
         <v>48</v>
@@ -4498,12 +4498,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C16" s="12">
         <v>18</v>
@@ -4584,12 +4584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C17" s="12">
         <v>18</v>
@@ -4670,12 +4670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C18" s="12">
         <v>48</v>
@@ -4756,12 +4756,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C19" s="12">
         <v>18</v>
@@ -4842,12 +4842,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C20" s="12">
         <v>48</v>
@@ -4928,12 +4928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C21" s="12">
         <v>56</v>
@@ -5014,12 +5014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C22" s="12">
         <v>18</v>
@@ -5100,12 +5100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C23" s="12">
         <v>18</v>
@@ -5186,12 +5186,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C24" s="12">
         <v>48</v>
@@ -5272,12 +5272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C25" s="12">
         <v>48</v>
@@ -5358,12 +5358,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C26" s="12">
         <v>48</v>
@@ -5444,12 +5444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C27" s="12">
         <v>18</v>
@@ -5530,12 +5530,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C28" s="12">
         <v>48</v>
@@ -5616,12 +5616,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C29" s="12">
         <v>58</v>
@@ -5702,12 +5702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C30" s="12">
         <v>68</v>
@@ -5788,12 +5788,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C31" s="12">
         <v>18</v>
@@ -5874,12 +5874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C32" s="12">
         <v>48</v>
@@ -5960,12 +5960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C33" s="12">
         <v>48</v>
@@ -6046,12 +6046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C34" s="12">
         <v>58</v>
@@ -6132,12 +6132,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C35" s="12">
         <v>48</v>
@@ -6218,12 +6218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C36" s="12">
         <v>48</v>
@@ -6304,12 +6304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C37" s="12">
         <v>48</v>
@@ -6390,12 +6390,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C38" s="12">
         <v>56</v>
@@ -6476,12 +6476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C39" s="12">
         <v>18</v>
@@ -6562,12 +6562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="A40" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C40" s="12">
         <v>58</v>
@@ -6648,12 +6648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="A41" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C41" s="12">
         <v>28</v>
@@ -6734,12 +6734,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
         <v>533</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C42" s="12">
         <v>26</v>
@@ -6820,12 +6820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C43" s="12">
         <v>48</v>
@@ -6906,12 +6906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C44" s="12">
         <v>18</v>
@@ -6992,12 +6992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C45" s="12">
         <v>18</v>
@@ -7078,12 +7078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C46" s="12">
         <v>48</v>
@@ -7164,12 +7164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C47" s="12">
         <v>66</v>
@@ -7250,12 +7250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C48" s="12">
         <v>48</v>
@@ -7336,12 +7336,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C49" s="12">
         <v>58</v>
@@ -7422,12 +7422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C50" s="12">
         <v>26</v>
@@ -7508,12 +7508,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C51" s="12">
         <v>26</v>
@@ -7594,12 +7594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C52" s="12">
         <v>36</v>
@@ -7680,12 +7680,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C53" s="12">
         <v>18</v>
@@ -7766,12 +7766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C54" s="12">
         <v>18</v>
@@ -7852,12 +7852,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C55" s="12">
         <v>17</v>
@@ -7938,12 +7938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C56" s="12">
         <v>48</v>
@@ -8024,12 +8024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C57" s="12">
         <v>18</v>
@@ -8110,12 +8110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C58" s="12">
         <v>48</v>
@@ -8196,12 +8196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28">
       <c r="A59" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C59" s="12">
         <v>8</v>
@@ -8229,7 +8229,7 @@
         <v>193</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>732</v>
@@ -8241,20 +8241,20 @@
         <v>733</v>
       </c>
       <c r="P59" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q59" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="R59" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="R59" s="12" t="s">
+      <c r="S59" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="S59" s="12" t="s">
+      <c r="T59" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="T59" s="12" t="s">
-        <v>738</v>
-      </c>
       <c r="U59" s="12">
         <v>1</v>
       </c>
@@ -8280,12 +8280,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28">
       <c r="A60" s="4" t="s">
         <v>728</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C60" s="12">
         <v>18</v>
@@ -8318,25 +8318,25 @@
         <v>47</v>
       </c>
       <c r="M60" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="N60" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="N60" s="12" t="s">
+      <c r="O60" s="12" t="s">
         <v>746</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>747</v>
       </c>
       <c r="P60" s="12" t="s">
         <v>729</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R60" s="12" t="s">
         <v>730</v>
       </c>
       <c r="S60" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T60" s="12" t="s">
         <v>47</v>
@@ -8366,12 +8366,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28">
       <c r="A61" s="3" t="s">
         <v>726</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C61" s="12">
         <v>14</v>
@@ -8404,25 +8404,25 @@
         <v>47</v>
       </c>
       <c r="M61" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="N61" s="12" t="s">
         <v>749</v>
-      </c>
-      <c r="N61" s="12" t="s">
-        <v>750</v>
       </c>
       <c r="O61" s="12" t="s">
         <v>727</v>
       </c>
       <c r="P61" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q61" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="Q61" s="12" t="s">
+      <c r="R61" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="R61" s="12" t="s">
+      <c r="S61" s="12" t="s">
         <v>753</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>754</v>
       </c>
       <c r="T61" s="12" t="s">
         <v>47</v>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788821D4-72BE-E04E-88C6-3294901E72C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600EA66-20D7-F644-A3D6-F5C395F3E6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D36" sqref="A1:AB61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C570908-9D60-FA40-8356-0D42543C3CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE9BDF-1F91-EA4F-B3B4-E06843C83F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3295,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:S65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE9BDF-1F91-EA4F-B3B4-E06843C83F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF96B1F-8610-0249-9DFF-A2BE1375E94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3295,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6821,10 +6821,10 @@
         <v>728</v>
       </c>
       <c r="L60" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>721</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>720</v>
       </c>
       <c r="N60" s="12" t="s">
         <v>722</v>
@@ -6923,10 +6923,10 @@
         <v>764</v>
       </c>
       <c r="L62" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>755</v>
-      </c>
-      <c r="M62" s="12" t="s">
-        <v>756</v>
       </c>
       <c r="N62" s="12" t="s">
         <v>757</v>
@@ -6974,10 +6974,10 @@
         <v>134</v>
       </c>
       <c r="L63" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>767</v>
       </c>
       <c r="N63" s="12" t="s">
         <v>768</v>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF96B1F-8610-0249-9DFF-A2BE1375E94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F357C-B3B9-4947-8DDE-8710367F84EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="790">
   <si>
     <t>cg_subtype</t>
   </si>
@@ -2387,6 +2387,9 @@
   </si>
   <si>
     <t>gb_subtype</t>
+  </si>
+  <si>
+    <t>H11N1</t>
   </si>
 </sst>
 </file>
@@ -3295,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3790,7 +3793,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>120</v>
+        <v>789</v>
       </c>
       <c r="E9" s="12">
         <v>2002</v>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F357C-B3B9-4947-8DDE-8710367F84EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF039A-6CBB-C349-8C1E-F67E77DE6D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3299,7 +3299,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:S65"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6824,10 +6824,10 @@
         <v>728</v>
       </c>
       <c r="L60" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>720</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>721</v>
       </c>
       <c r="N60" s="12" t="s">
         <v>722</v>
@@ -6977,10 +6977,10 @@
         <v>134</v>
       </c>
       <c r="L63" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>767</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>766</v>
       </c>
       <c r="N63" s="12" t="s">
         <v>768</v>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF039A-6CBB-C349-8C1E-F67E77DE6D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDC527-3AE2-5F48-B09E-E53B7FB91C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/respiratory/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDC527-3AE2-5F48-B09E-E53B7FB91C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ECF600-A81A-8B40-968D-825743161374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flu-refseqs.isolates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="791">
   <si>
     <t>cg_subtype</t>
   </si>
@@ -34,18 +34,9 @@
     <t>iso_day</t>
   </si>
   <si>
-    <t>iso_host</t>
-  </si>
-  <si>
-    <t>iso_source</t>
-  </si>
-  <si>
     <t>iso_country</t>
   </si>
   <si>
-    <t>iso_region</t>
-  </si>
-  <si>
     <t>segment1_accession</t>
   </si>
   <si>
@@ -2390,13 +2381,25 @@
   </si>
   <si>
     <t>H11N1</t>
+  </si>
+  <si>
+    <t>origin_type</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>iso_place_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3296,32 +3299,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -3333,3531 +3336,3711 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="12">
         <v>1934</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G2" s="12">
         <v>28</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="B3" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="12">
         <v>2001</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="12">
         <v>24</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="B4" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="12">
         <v>2019</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12">
         <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="B5" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="12">
         <v>2017</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="12">
         <v>28</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="S5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="B6" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="E6" s="12">
         <v>2018</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="S6" s="12" t="s">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B7" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="12">
         <v>1994</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="B8" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="E8" s="12">
         <v>2003</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" s="12">
         <v>19</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="R8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="S8" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="T8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="B9" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="S8" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E9" s="12">
         <v>2002</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9" s="12">
         <v>26</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="B10" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="12">
         <v>2018</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="12">
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>18</v>
+        <v>788</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="S10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="T10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="Q10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="B11" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="E11" s="12">
         <v>2016</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G11" s="12">
         <v>29</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Q11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="E12" s="12">
         <v>2005</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G12" s="12">
         <v>21</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="12">
         <v>2012</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>18</v>
+        <v>788</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="Q13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="B14" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E14" s="12">
         <v>2016</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G14" s="12">
         <v>30</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="S14" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="T14" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="B15" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="E15" s="12">
         <v>2020</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="12">
         <v>29</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="S15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="T15" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="Q15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="B16" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="E16" s="12">
         <v>1988</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="12">
         <v>15</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="T16" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="Q16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="B17" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="12">
         <v>2018</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="12">
         <v>10</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>33</v>
+        <v>788</v>
       </c>
       <c r="I17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="T17" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="Q17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="B18" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="12">
         <v>2019</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G18" s="12">
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="O18" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="R18" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="T18" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="Q18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="B19" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12">
         <v>2019</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G19" s="12">
         <v>20</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>65</v>
+        <v>788</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="R19" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="S19" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="Q19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="B20" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="E20" s="12">
         <v>2020</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G20" s="12">
         <v>5</v>
       </c>
       <c r="H20" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="Q20" s="12" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="B21" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="E21" s="12">
         <v>2013</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G21" s="12">
         <v>27</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="Q21" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="R21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="S21" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="T21" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="Q21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="B22" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="E22" s="12">
         <v>2009</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" s="12">
         <v>9</v>
       </c>
       <c r="H22" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="12" t="s">
+      <c r="M22" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="T22" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="Q22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="B23" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="E23" s="12">
         <v>1999</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="P23" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="R23" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="S23" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="T23" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="Q23" s="12" t="s">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="B24" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="E24" s="12">
         <v>2021</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G24" s="12">
         <v>1</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="T24" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="Q24" s="12" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="B25" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="E25" s="12">
         <v>2020</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="12">
         <v>29</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="Q25" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="R25" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="S25" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="T25" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="Q25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="B26" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>324</v>
       </c>
       <c r="E26" s="12">
         <v>2014</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26" s="12">
         <v>13</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="N26" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="O26" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="P26" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="S26" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="T26" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="Q26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="B27" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>338</v>
       </c>
       <c r="E27" s="12">
         <v>2000</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="12">
         <v>15</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>205</v>
+        <v>788</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="L27" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="R27" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="S27" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="T27" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="Q27" s="12" t="s">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="B28" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="E28" s="12">
         <v>2020</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G28" s="12">
         <v>29</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="Q28" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="R28" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="S28" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="T28" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="Q28" s="12" t="s">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="B29" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="S28" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E29" s="12">
         <v>2016</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G29" s="12">
         <v>19</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="N29" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="P29" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="T29" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="Q29" s="12" t="s">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="B30" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="E30" s="12">
         <v>2014</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="K30" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="P30" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="Q30" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="S30" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="T30" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="Q30" s="12" t="s">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="B31" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="E31" s="12">
         <v>2008</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G31" s="12">
         <v>5</v>
       </c>
       <c r="H31" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J31" s="12" t="s">
+      <c r="N31" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="O31" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="P31" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="Q31" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="R31" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="S31" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="T31" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="Q31" s="12" t="s">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="B32" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="E32" s="12">
         <v>2018</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G32" s="12">
         <v>10</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>205</v>
+        <v>788</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K32" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="P32" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="Q32" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="R32" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="S32" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="T32" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="Q32" s="12" t="s">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="R32" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="B33" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E33" s="12">
         <v>2016</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G33" s="12">
         <v>20</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="I33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="N33" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="O33" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="P33" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="Q33" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="R33" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="S33" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="T33" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="12" t="s">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="B34" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="S33" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="E34" s="12">
         <v>2015</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="J34" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="12" t="s">
+      <c r="P34" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="Q34" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="R34" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="S34" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="T34" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="Q34" s="12" t="s">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="B35" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="S34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="E35" s="12">
         <v>2020</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="12">
         <v>23</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="K35" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="P35" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="Q35" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="R35" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="S35" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="T35" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="Q35" s="12" t="s">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="B36" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="E36" s="12">
         <v>2017</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G36" s="12">
         <v>16</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>360</v>
+        <v>788</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="N36" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="O36" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="P36" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="Q36" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="R36" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="S36" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="T36" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="Q36" s="12" t="s">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="R36" s="12" t="s">
+      <c r="B37" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="S36" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>459</v>
       </c>
       <c r="E37" s="12">
         <v>2015</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G37" s="12">
         <v>22</v>
       </c>
       <c r="H37" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="N37" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="12" t="s">
+      <c r="P37" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="Q37" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="R37" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="O37" s="12" t="s">
+      <c r="S37" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="T37" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="Q37" s="12" t="s">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="B38" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>472</v>
       </c>
       <c r="E38" s="12">
         <v>2015</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G38" s="12">
         <v>15</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="N38" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="O38" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L38" s="12" t="s">
+      <c r="P38" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="Q38" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="R38" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="O38" s="12" t="s">
+      <c r="S38" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="T38" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="Q38" s="12" t="s">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="B39" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="E39" s="12">
         <v>2007</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>65</v>
+        <v>788</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="N39" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="O39" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="P39" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="Q39" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="R39" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="S39" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="T39" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="Q39" s="12" t="s">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="B40" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="E40" s="12">
         <v>2018</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G40" s="12">
         <v>22</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>205</v>
+        <v>788</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K40" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="P40" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="Q40" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="R40" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="O40" s="12" t="s">
+      <c r="S40" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="T40" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="Q40" s="12" t="s">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="B41" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="E41" s="12">
         <v>1956</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="N41" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="O41" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="P41" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="Q41" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="R41" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="S41" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="T41" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="Q41" s="12" t="s">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="R41" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="B42" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E42" s="12">
         <v>2000</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G42" s="12">
         <v>16</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="L42" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="P42" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="Q42" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="N42" s="12" t="s">
+      <c r="R42" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="O42" s="12" t="s">
+      <c r="S42" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="T42" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="Q42" s="12" t="s">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="B43" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="S42" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>533</v>
       </c>
       <c r="E43" s="12">
         <v>2012</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G43" s="12">
         <v>9</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="12" t="s">
+      <c r="P43" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="Q43" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="R43" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="S43" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="T43" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="Q43" s="12" t="s">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="B44" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="S43" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="E44" s="12">
         <v>2010</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G44" s="12">
         <v>31</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>385</v>
+        <v>788</v>
       </c>
       <c r="I44" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="L44" s="12" t="s">
+      <c r="P44" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="Q44" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="R44" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="S44" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="T44" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="Q44" s="12" t="s">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="R44" s="12" t="s">
+      <c r="B45" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="E45" s="12">
         <v>2007</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G45" s="12">
         <v>26</v>
       </c>
       <c r="H45" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="12" t="s">
+      <c r="M45" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="P45" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="Q45" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="N45" s="12" t="s">
+      <c r="R45" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="S45" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="T45" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="Q45" s="12" t="s">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="B46" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="S45" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>568</v>
       </c>
       <c r="E46" s="12">
         <v>2016</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="12" t="s">
+      <c r="P46" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="Q46" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="S46" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="T46" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="Q46" s="12" t="s">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="B47" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="S46" s="12" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>579</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E47" s="12">
         <v>2007</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G47" s="12">
         <v>24</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="P47" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="Q47" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="R47" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="S47" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="T47" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="Q47" s="12" t="s">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="B48" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="S47" s="12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>589</v>
-      </c>
       <c r="D48" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E48" s="12">
         <v>2016</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G48" s="12">
         <v>18</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="12" t="s">
+      <c r="M48" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="P48" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="Q48" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="N48" s="12" t="s">
+      <c r="R48" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="S48" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="T48" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="Q48" s="12" t="s">
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="R48" s="12" t="s">
+      <c r="B49" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="S48" s="12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>599</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E49" s="12">
         <v>2006</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G49" s="12">
         <v>6</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>205</v>
+        <v>788</v>
       </c>
       <c r="I49" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="M49" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="N49" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="O49" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="P49" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="Q49" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="R49" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="S49" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="T49" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="Q49" s="12" t="s">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="B50" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="S49" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>612</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E50" s="12">
         <v>2016</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G50" s="12">
         <v>18</v>
       </c>
       <c r="H50" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="O50" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L50" s="12" t="s">
+      <c r="P50" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="Q50" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="R50" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="S50" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="P50" s="12" t="s">
+      <c r="T50" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="Q50" s="12" t="s">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="B51" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="S50" s="12" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E51" s="12">
         <v>2001</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>95</v>
+        <v>788</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="L51" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="P51" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="M51" s="12" t="s">
+      <c r="Q51" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="R51" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="O51" s="12" t="s">
+      <c r="S51" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="P51" s="12" t="s">
+      <c r="T51" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="Q51" s="12" t="s">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="R51" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="B52" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E52" s="12">
         <v>2004</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G52" s="12">
         <v>21</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>18</v>
+        <v>788</v>
       </c>
       <c r="I52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="N52" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="12" t="s">
+      <c r="O52" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="P52" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="M52" s="12" t="s">
+      <c r="Q52" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="R52" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="S52" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="P52" s="12" t="s">
+      <c r="T52" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="Q52" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="S52" s="12" t="s">
-        <v>643</v>
-      </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C53" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D53" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E53">
         <v>2006</v>
       </c>
       <c r="F53" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G53">
         <v>10</v>
       </c>
-      <c r="H53" t="s">
-        <v>18</v>
+      <c r="H53" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>775</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>776</v>
+      </c>
+      <c r="N53" t="s">
+        <v>777</v>
+      </c>
+      <c r="O53" t="s">
         <v>778</v>
       </c>
-      <c r="J53" t="s">
-        <v>423</v>
-      </c>
-      <c r="K53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="P53" t="s">
         <v>779</v>
       </c>
-      <c r="M53" t="s">
+      <c r="Q53" t="s">
         <v>780</v>
       </c>
-      <c r="N53" t="s">
+      <c r="R53" t="s">
         <v>781</v>
       </c>
-      <c r="O53" t="s">
+      <c r="S53" t="s">
         <v>782</v>
       </c>
-      <c r="P53" t="s">
+      <c r="T53" t="s">
         <v>783</v>
       </c>
-      <c r="Q53" t="s">
-        <v>784</v>
-      </c>
-      <c r="R53" t="s">
-        <v>785</v>
-      </c>
-      <c r="S53" t="s">
-        <v>786</v>
-      </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E54" s="12">
         <v>2006</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>713</v>
+        <v>788</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="12" t="s">
+      <c r="P54" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="M54" s="12" t="s">
+      <c r="Q54" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="R54" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="O54" s="12" t="s">
+      <c r="S54" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="P54" s="12" t="s">
+      <c r="T54" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="Q54" s="12" t="s">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="R54" s="12" t="s">
+      <c r="B55" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="S54" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>657</v>
       </c>
       <c r="E55" s="12">
         <v>2012</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="N55" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="I55" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J55" s="12" t="s">
+      <c r="O55" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="K55" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" s="12" t="s">
+      <c r="P55" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="Q55" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="R55" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="S55" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="T55" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="Q55" s="12" t="s">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="B56" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="S55" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="E56" s="12">
         <v>2008</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G56" s="12">
         <v>27</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="N56" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="I56" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="O56" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="P56" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="Q56" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="R56" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="S56" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="T56" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="Q56" s="12" t="s">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="R56" s="12" t="s">
+      <c r="B57" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="S56" s="12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>682</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E57" s="12">
         <v>2018</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G57" s="12">
         <v>8</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>109</v>
+        <v>788</v>
       </c>
       <c r="I57" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="N57" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="O57" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="P57" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="Q57" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="N57" s="12" t="s">
+      <c r="R57" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="O57" s="12" t="s">
+      <c r="S57" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="T57" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="Q57" s="12" t="s">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="R57" s="12" t="s">
+      <c r="B58" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="S57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>695</v>
       </c>
       <c r="E58" s="12">
         <v>2010</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G58" s="12">
         <v>21</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>534</v>
+        <v>788</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="P58" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="Q58" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="N58" s="12" t="s">
+      <c r="R58" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="S58" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="P58" s="12" t="s">
+      <c r="T58" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="Q58" s="12" t="s">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="R58" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="B59" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E59" s="12">
         <v>2008</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G59" s="12">
         <v>28</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>534</v>
+        <v>788</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="P59" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="M59" s="12" t="s">
+      <c r="Q59" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="R59" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="S59" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="T59" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="Q59" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="S59" s="12" t="s">
-        <v>712</v>
-      </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>730</v>
-      </c>
       <c r="C60" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E60" s="12">
         <v>1973</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12" t="s">
-        <v>182</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="12"/>
       <c r="K60" s="12" t="s">
-        <v>728</v>
+        <v>179</v>
       </c>
       <c r="L60" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q60" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="R60" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="M60" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="N60" s="12" t="s">
+      <c r="S60" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="O60" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="P60" s="12" t="s">
+      <c r="T60" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="Q60" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="S60" s="12" t="s">
-        <v>726</v>
-      </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E61" s="12">
         <v>2000</v>
@@ -6865,50 +7048,53 @@
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12" t="s">
-        <v>326</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L61" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="M61" s="12" t="s">
+      <c r="Q61" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="N61" s="12" t="s">
+      <c r="R61" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="O61" s="12" t="s">
+      <c r="S61" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="T61" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="Q61" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>752</v>
-      </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E62" s="12">
         <v>1988</v>
@@ -6916,50 +7102,53 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12" t="s">
-        <v>254</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="12"/>
       <c r="K62" s="12" t="s">
-        <v>764</v>
+        <v>251</v>
       </c>
       <c r="L62" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q62" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="M62" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="N62" s="12" t="s">
+      <c r="R62" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="S62" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="P62" s="12" t="s">
+      <c r="T62" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="Q62" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="S62" s="12" t="s">
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="B63" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E63" s="12">
         <v>1940</v>
@@ -6967,156 +7156,165 @@
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="12"/>
       <c r="K63" s="12" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="L63" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="P63" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="M63" s="12" t="s">
+      <c r="Q63" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="N63" s="12" t="s">
+      <c r="R63" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="O63" s="12" t="s">
+      <c r="S63" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="P63" s="12" t="s">
+      <c r="T63" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="Q63" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>773</v>
-      </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E64" s="12">
         <v>1950</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>18</v>
+        <v>788</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q64" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="M64" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="O64" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="P64" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q64" s="12" t="s">
-        <v>719</v>
-      </c>
       <c r="R64" s="12" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="S64" s="12" t="s">
-        <v>36</v>
+        <v>740</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E65" s="12">
         <v>2011</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G65" s="12">
         <v>21</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>65</v>
+        <v>788</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="P65" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q65" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="M65" s="12" t="s">
+      <c r="R65" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="N65" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="O65" s="12" t="s">
+      <c r="S65" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="P65" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q65" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="S65" s="12" t="s">
-        <v>36</v>
+      <c r="T65" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/flu-refseqs.isolates.xlsx
+++ b/tabular/core/flu-refseqs.isolates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/respiratory/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702A022-AE2E-D346-9B32-C63EDA4D3053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D64BA-1323-7343-A50B-160483588962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="500" windowWidth="23160" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="2045">
   <si>
     <t>iso_year</t>
   </si>
@@ -6163,6 +6163,9 @@
   </si>
   <si>
     <t>B/Pennsylvania/5/2007(2)</t>
+  </si>
+  <si>
+    <t>B/Florida/4/2006</t>
   </si>
 </sst>
 </file>
@@ -7114,8 +7117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M190" workbookViewId="0">
-      <selection activeCell="U210" sqref="A1:W221"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A157" sqref="A1:W221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22403,7 +22406,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
-        <v>1902</v>
+        <v>2044</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>784</v>
